--- a/Dateien/Berichtsheft/Berichtsheft.xlsx
+++ b/Dateien/Berichtsheft/Berichtsheft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dozent\Kurse\CC\320585\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95734C2-A817-4B58-8746-549B55292AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7999BC95-B531-48E0-885C-A9BAC46502F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8CD0948-3772-4B75-9530-0D0B4FC97729}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Montag</t>
   </si>
@@ -86,6 +86,48 @@
   </si>
   <si>
     <t>Hinweise und Tips zu einzelnen Punkten</t>
+  </si>
+  <si>
+    <t>Margin, Padding, Border und Gaps</t>
+  </si>
+  <si>
+    <t>GUI Implementierung</t>
+  </si>
+  <si>
+    <t>GUI-Funktionen</t>
+  </si>
+  <si>
+    <t>Dateien Laden</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>CSV-Dateien laden und lesen</t>
+  </si>
+  <si>
+    <t>Resourcen laden</t>
+  </si>
+  <si>
+    <t>JAR-Datei exportieren</t>
+  </si>
+  <si>
+    <t>Implementierung Funktionalität</t>
+  </si>
+  <si>
+    <t>Verbindung Datenschicht und GUI</t>
+  </si>
+  <si>
+    <t>Suchen in ArrayList</t>
+  </si>
+  <si>
+    <t>GUI-Element Übergabe</t>
+  </si>
+  <si>
+    <t>Actionlistener mit Übergabe</t>
+  </si>
+  <si>
+    <t>Implementierung weiterer Funktionen</t>
   </si>
 </sst>
 </file>
@@ -511,7 +553,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,11 +731,21 @@
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -724,10 +776,18 @@
         <v>11</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -745,7 +805,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -753,10 +813,18 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -774,7 +842,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -785,7 +853,9 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>

--- a/Dateien/Berichtsheft/Berichtsheft.xlsx
+++ b/Dateien/Berichtsheft/Berichtsheft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dozent\Kurse\CC\320585\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7999BC95-B531-48E0-885C-A9BAC46502F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C8D318-5057-45DE-9236-48B3ECF79DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8CD0948-3772-4B75-9530-0D0B4FC97729}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Montag</t>
   </si>
@@ -128,6 +128,48 @@
   </si>
   <si>
     <t>Implementierung weiterer Funktionen</t>
+  </si>
+  <si>
+    <t>XML Einführung</t>
+  </si>
+  <si>
+    <t>Lesen von XML SAX</t>
+  </si>
+  <si>
+    <t>Schreiben von XML STAXCursor</t>
+  </si>
+  <si>
+    <t>Schreiben von XML STAXiterator</t>
+  </si>
+  <si>
+    <t>Lesen von XML STAX</t>
+  </si>
+  <si>
+    <t>Lesen von XML - DOM</t>
+  </si>
+  <si>
+    <t>Schreiben von XML- DOM</t>
+  </si>
+  <si>
+    <t>Modify XML</t>
+  </si>
+  <si>
+    <t>JDOM XML Read</t>
+  </si>
+  <si>
+    <t>JDOM XML Write</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>GSON - ToJSON</t>
+  </si>
+  <si>
+    <t>GSON - FromJSON</t>
+  </si>
+  <si>
+    <t>Objekte speichern</t>
   </si>
 </sst>
 </file>
@@ -552,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC58AEF-45C0-4B85-B7DF-504263EE9374}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,11 +788,21 @@
       <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -789,11 +841,21 @@
         <v>26</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -827,10 +889,16 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -861,7 +929,9 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>

--- a/Dateien/Berichtsheft/Berichtsheft.xlsx
+++ b/Dateien/Berichtsheft/Berichtsheft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dozent\Kurse\CC\320585\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C8D318-5057-45DE-9236-48B3ECF79DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF68375-E87A-4E7C-8052-6FAEAA3F3630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8CD0948-3772-4B75-9530-0D0B4FC97729}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>Montag</t>
   </si>
@@ -170,6 +170,30 @@
   </si>
   <si>
     <t>Objekte speichern</t>
+  </si>
+  <si>
+    <t>GUI Übung</t>
+  </si>
+  <si>
+    <t>Design Pattern Beispiele</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>GUI Übung zu Design Pattern</t>
+  </si>
+  <si>
+    <t>Implementierung von Design Pattern</t>
+  </si>
+  <si>
+    <t>Implementierung XML in Quizmaster</t>
+  </si>
+  <si>
+    <t>Implementierung von Funktionen in Quizmaster</t>
+  </si>
+  <si>
+    <t>Observer</t>
   </si>
 </sst>
 </file>
@@ -594,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC58AEF-45C0-4B85-B7DF-504263EE9374}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,16 +827,36 @@
       <c r="O3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -862,7 +906,9 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="V4" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -905,7 +951,9 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="V5" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>

--- a/Dateien/Berichtsheft/Berichtsheft.xlsx
+++ b/Dateien/Berichtsheft/Berichtsheft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dozent\Kurse\CC\320585\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF68375-E87A-4E7C-8052-6FAEAA3F3630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D619CE0-1167-4CBE-9374-B77E8AE3853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8CD0948-3772-4B75-9530-0D0B4FC97729}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8CD0948-3772-4B75-9530-0D0B4FC97729}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>Montag</t>
   </si>
@@ -194,6 +194,42 @@
   </si>
   <si>
     <t>Observer</t>
+  </si>
+  <si>
+    <t>Klausur</t>
+  </si>
+  <si>
+    <t>Klausurvobereitung</t>
+  </si>
+  <si>
+    <t>Prüfungsübung</t>
+  </si>
+  <si>
+    <t>Software Allgemein</t>
+  </si>
+  <si>
+    <t>Software Anpassungen</t>
+  </si>
+  <si>
+    <t>Testarten</t>
+  </si>
+  <si>
+    <t>Software Tests</t>
+  </si>
+  <si>
+    <t>GUI Übung Kasse</t>
+  </si>
+  <si>
+    <t>Implementierung GUI</t>
+  </si>
+  <si>
+    <t>Implementierung Funktionen und Methoden</t>
+  </si>
+  <si>
+    <t>Verfeinern der Klassen und Methoden</t>
+  </si>
+  <si>
+    <t>Testverfahren</t>
   </si>
 </sst>
 </file>
@@ -616,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC58AEF-45C0-4B85-B7DF-504263EE9374}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,6 +1434,252 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
+    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44796</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44797</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44798</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44799</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44802</v>
+      </c>
+      <c r="G23" s="1">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
